--- a/config_12.08/fish_3d_yutu_random_2.xlsx
+++ b/config_12.08/fish_3d_yutu_random_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="91">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -364,27 +364,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>124,125,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>123,124,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>120,121,122,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>117,118,119,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>话费鱼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>126,127,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>128,129,130,128,129,130,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>131,132,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>135,136,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>133,134,134,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -457,7 +457,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -473,6 +473,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,7 +514,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -557,8 +563,15 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1117,7 +1130,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -1434,10 +1447,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C15" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D15">
         <v>2000</v>
@@ -1458,17 +1471,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
     <col min="2" max="2" width="13.125" style="6" customWidth="1"/>
-    <col min="3" max="4" width="13.875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="13.875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="13.875" style="8" customWidth="1"/>
     <col min="5" max="5" width="16.375" style="8" customWidth="1"/>
     <col min="6" max="6" width="18" style="8" customWidth="1"/>
     <col min="7" max="7" width="14.5" style="6" customWidth="1"/>
@@ -1533,7 +1547,7 @@
       <c r="B3" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>16</v>
       </c>
       <c r="D3" s="8">
@@ -1557,7 +1571,7 @@
       <c r="B4" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>17</v>
       </c>
       <c r="D4" s="8">
@@ -1583,7 +1597,7 @@
       <c r="B5" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="2">
         <v>21</v>
       </c>
       <c r="D5" s="7">
@@ -1607,7 +1621,7 @@
       <c r="B6" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="2">
         <v>22</v>
       </c>
       <c r="D6" s="7">
@@ -1630,7 +1644,7 @@
       <c r="B7" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="2">
         <v>23</v>
       </c>
       <c r="D7" s="7">
@@ -1653,7 +1667,7 @@
       <c r="B8" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="2">
         <v>24</v>
       </c>
       <c r="D8" s="7">
@@ -1676,7 +1690,7 @@
       <c r="B9" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="25">
         <v>65</v>
       </c>
       <c r="D9" s="13">
@@ -1700,7 +1714,7 @@
       <c r="B10" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="25">
         <v>66</v>
       </c>
       <c r="D10" s="13">
@@ -1724,7 +1738,7 @@
       <c r="B11" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="25">
         <v>67</v>
       </c>
       <c r="D11" s="13">
@@ -1748,7 +1762,7 @@
       <c r="B12" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="25">
         <v>68</v>
       </c>
       <c r="D12" s="13">
@@ -1763,6 +1777,102 @@
       </c>
       <c r="H12" s="13">
         <v>1606751999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="22">
+        <v>12</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="24">
+        <v>71</v>
+      </c>
+      <c r="D13" s="23">
+        <v>2</v>
+      </c>
+      <c r="E13" s="23">
+        <v>1</v>
+      </c>
+      <c r="F13" s="23"/>
+      <c r="G13" s="24">
+        <v>1607385600</v>
+      </c>
+      <c r="H13" s="24">
+        <v>1607961599</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="22">
+        <v>13</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="24">
+        <v>72</v>
+      </c>
+      <c r="D14" s="23">
+        <v>2</v>
+      </c>
+      <c r="E14" s="23">
+        <v>1</v>
+      </c>
+      <c r="F14" s="23"/>
+      <c r="G14" s="24">
+        <v>1607385600</v>
+      </c>
+      <c r="H14" s="24">
+        <v>1607961599</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="22">
+        <v>14</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="24">
+        <v>73</v>
+      </c>
+      <c r="D15" s="23">
+        <v>2</v>
+      </c>
+      <c r="E15" s="23">
+        <v>1</v>
+      </c>
+      <c r="F15" s="23"/>
+      <c r="G15" s="24">
+        <v>1607385600</v>
+      </c>
+      <c r="H15" s="24">
+        <v>1607961599</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="22">
+        <v>15</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="24">
+        <v>74</v>
+      </c>
+      <c r="D16" s="23">
+        <v>2</v>
+      </c>
+      <c r="E16" s="23">
+        <v>5</v>
+      </c>
+      <c r="F16" s="23"/>
+      <c r="G16" s="24">
+        <v>1607385600</v>
+      </c>
+      <c r="H16" s="24">
+        <v>1607961599</v>
       </c>
     </row>
   </sheetData>
@@ -1961,7 +2071,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2012,7 +2122,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>53</v>
@@ -2029,7 +2139,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>53</v>
@@ -2046,7 +2156,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>54</v>
@@ -2063,7 +2173,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>55</v>

--- a/config_12.08/fish_3d_yutu_random_2.xlsx
+++ b/config_12.08/fish_3d_yutu_random_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -1130,7 +1130,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5:C7"/>
     </sheetView>
   </sheetViews>
@@ -1473,7 +1473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -1787,7 +1787,7 @@
         <v>46</v>
       </c>
       <c r="C13" s="24">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D13" s="23">
         <v>2</v>
@@ -1811,7 +1811,7 @@
         <v>46</v>
       </c>
       <c r="C14" s="24">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D14" s="23">
         <v>2</v>
@@ -1835,7 +1835,7 @@
         <v>46</v>
       </c>
       <c r="C15" s="24">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D15" s="23">
         <v>2</v>
@@ -1859,7 +1859,7 @@
         <v>46</v>
       </c>
       <c r="C16" s="24">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D16" s="23">
         <v>2</v>

--- a/config_12.08/fish_3d_yutu_random_2.xlsx
+++ b/config_12.08/fish_3d_yutu_random_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -296,18 +296,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>37,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>34,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>|描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -385,6 +373,18 @@
   </si>
   <si>
     <t>133,134,134,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34,137</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37,139</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40,141</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1130,14 +1130,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="17.75" style="10" customWidth="1"/>
-    <col min="3" max="3" width="74.875" customWidth="1"/>
+    <col min="3" max="3" width="74.875" style="19" customWidth="1"/>
     <col min="6" max="6" width="64.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="41.25" customWidth="1"/>
     <col min="8" max="8" width="41.25" style="10" customWidth="1"/>
@@ -1148,9 +1148,9 @@
         <v>40</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>41</v>
       </c>
       <c r="D1" t="s">
@@ -1174,9 +1174,9 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>62</v>
       </c>
       <c r="D2" s="10">
@@ -1197,9 +1197,9 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="19" t="s">
         <v>62</v>
       </c>
       <c r="D3" s="10">
@@ -1220,9 +1220,9 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="19" t="s">
         <v>62</v>
       </c>
       <c r="D4" s="10">
@@ -1243,10 +1243,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>88</v>
       </c>
       <c r="D5" s="10">
         <v>180</v>
@@ -1263,10 +1263,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>68</v>
+        <v>71</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>89</v>
       </c>
       <c r="D6" s="10">
         <v>180</v>
@@ -1283,10 +1283,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>90</v>
       </c>
       <c r="D7">
         <v>200</v>
@@ -1303,9 +1303,9 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="19" t="s">
         <v>65</v>
       </c>
       <c r="D8">
@@ -1323,10 +1323,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>83</v>
+        <v>73</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>80</v>
       </c>
       <c r="D9" s="10">
         <v>20</v>
@@ -1345,9 +1345,9 @@
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="19" t="s">
         <v>63</v>
       </c>
       <c r="D10" s="10">
@@ -1367,9 +1367,9 @@
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="19" t="s">
         <v>63</v>
       </c>
       <c r="D11" s="10">
@@ -1387,10 +1387,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="19" t="s">
         <v>79</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>82</v>
       </c>
       <c r="D12" s="10">
         <v>280</v>
@@ -1407,10 +1407,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="19" t="s">
         <v>81</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>84</v>
       </c>
       <c r="D13" s="10">
         <v>300</v>
@@ -1419,7 +1419,7 @@
         <v>500</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -1427,9 +1427,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="19" t="s">
         <v>64</v>
       </c>
       <c r="D14">
@@ -1447,10 +1447,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C15" t="s">
-        <v>86</v>
+        <v>82</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="D15">
         <v>2000</v>
@@ -1473,8 +1473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2122,7 +2122,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>53</v>
@@ -2139,7 +2139,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>53</v>
@@ -2156,7 +2156,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>54</v>
@@ -2173,7 +2173,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>55</v>
